--- a/Applications/CoupledExpressionDynamics/NERDSS gene_expression/ClockModel_NerdssParameters.xlsx
+++ b/Applications/CoupledExpressionDynamics/NERDSS gene_expression/ClockModel_NerdssParameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggie/Dropbox/j2020/Nimbios/ClockModel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggie/github/spatialnimbios/testcases/Applications/CoupledExpressionDynamics/NERDSS gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310D9D52-856B-9C4A-9CA3-E5D7FB4B061E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05DDDEF-E4CF-8C43-8CFA-8CE28C712D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="460" windowWidth="27640" windowHeight="16000" activeTab="3" xr2:uid="{3BF68A07-1755-2940-B2B0-16664F3F0FB8}"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="27640" windowHeight="16000" xr2:uid="{3BF68A07-1755-2940-B2B0-16664F3F0FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Clock Model original" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Clock Model Localized D5" sheetId="4" r:id="rId3"/>
     <sheet name="Clock Model Localized D2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="61">
   <si>
     <t>time (s)</t>
   </si>
@@ -503,6 +503,33 @@
   <si>
     <t>* The consequence is negligble</t>
   </si>
+  <si>
+    <t>POSITIONING OF THE PROMOTERS:</t>
+  </si>
+  <si>
+    <t>PrmA:</t>
+  </si>
+  <si>
+    <t>[50, 50, 50]</t>
+  </si>
+  <si>
+    <t>[x,y,z] (nm)</t>
+  </si>
+  <si>
+    <t>PrmR:</t>
+  </si>
+  <si>
+    <t>[-50,-50,-50]</t>
+  </si>
+  <si>
+    <t>[30,30,30]</t>
+  </si>
+  <si>
+    <t>[-30,-30,-30]</t>
+  </si>
+  <si>
+    <t>All species diffuse, and thus initial positions were chosen randomly in the volume</t>
+  </si>
 </sst>
 </file>
 
@@ -547,15 +574,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -624,11 +657,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -666,12 +741,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFBB7A0-1577-6346-BDBA-D2304E649213}">
   <dimension ref="C1:AD185"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1866,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" ht="68" x14ac:dyDescent="0.2">
+      <c r="D23" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="AA23">
         <v>38.000000000137902</v>
       </c>
@@ -4225,7 +4320,7 @@
   <dimension ref="C1:AD185"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:Q18"/>
+      <selection activeCell="D23" sqref="D23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4847,15 +4942,15 @@
         <v>14</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
       <c r="AA17">
         <v>31.999999999938701</v>
       </c>
@@ -4892,14 +4987,14 @@
         <v>14</v>
       </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="16"/>
-      <c r="M18" s="15" t="s">
+      <c r="K18" s="15"/>
+      <c r="M18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
       <c r="AA18">
         <v>32.999999999971898</v>
       </c>
@@ -5003,7 +5098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="8"/>
       <c r="AA22">
         <v>37.000000000104698</v>
@@ -5018,7 +5113,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="D23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="AA23">
         <v>38.000000000137902</v>
       </c>
@@ -5032,10 +5133,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -5054,10 +5159,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -7472,8 +7581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C98E52-EA93-1246-917B-D790388B5A98}">
   <dimension ref="C1:AD185"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8238,7 +8347,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="8"/>
       <c r="AA22">
         <v>37.000000000104698</v>
@@ -8253,7 +8362,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="D23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="AA23">
         <v>38.000000000137902</v>
       </c>
@@ -8267,10 +8382,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -8289,10 +8408,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -10703,8 +10826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ACE459-E046-F94C-B780-360ACD6E5E38}">
   <dimension ref="C1:AD185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11469,7 +11592,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="8"/>
       <c r="AA22">
         <v>37.000000000104698</v>
@@ -11484,7 +11607,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="D23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="AA23">
         <v>38.000000000137902</v>
       </c>
@@ -11498,10 +11627,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -11520,10 +11653,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>

--- a/Applications/CoupledExpressionDynamics/NERDSS gene_expression/ClockModel_NerdssParameters.xlsx
+++ b/Applications/CoupledExpressionDynamics/NERDSS gene_expression/ClockModel_NerdssParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggie/github/spatialnimbios/testcases/Applications/CoupledExpressionDynamics/NERDSS gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05DDDEF-E4CF-8C43-8CFA-8CE28C712D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3AC15-5D9C-334E-B520-B18CD1093DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="460" windowWidth="27640" windowHeight="16000" xr2:uid="{3BF68A07-1755-2940-B2B0-16664F3F0FB8}"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="27640" windowHeight="16000" activeTab="2" xr2:uid="{3BF68A07-1755-2940-B2B0-16664F3F0FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Clock Model original" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>SMOLDYN</t>
-  </si>
-  <si>
-    <t>Rates for clock model.</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -530,6 +527,9 @@
   <si>
     <t>All species diffuse, and thus initial positions were chosen randomly in the volume</t>
   </si>
+  <si>
+    <t>Rates for clock model. For microscopic rates, see Col P, Q, R</t>
+  </si>
 </sst>
 </file>
 
@@ -574,7 +574,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,9 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -764,6 +767,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFBB7A0-1577-6346-BDBA-D2304E649213}">
   <dimension ref="C1:AD185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,13 +1152,13 @@
       </c>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f>50/602</f>
-        <v>8.3056478405315617E-2</v>
-      </c>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="AA4">
         <v>18.999999999968999</v>
       </c>
@@ -1177,47 +1189,47 @@
     <row r="6" spans="3:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="AA6">
         <v>20.999999999964398</v>
@@ -1237,22 +1249,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="7"/>
@@ -1277,22 +1289,22 @@
     </row>
     <row r="8" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <f>602/0.6022</f>
@@ -1340,22 +1352,22 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9" s="10"/>
@@ -1378,22 +1390,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="10"/>
@@ -1413,22 +1425,22 @@
     </row>
     <row r="11" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <f>602/0.6022</f>
@@ -1476,22 +1488,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12" s="10"/>
@@ -1514,22 +1526,22 @@
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="10"/>
       <c r="M13" s="10"/>
@@ -1552,22 +1564,22 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="10"/>
       <c r="M14" s="10"/>
@@ -1590,28 +1602,28 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="I15" s="24"/>
       <c r="J15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7">
         <f>1204/0.6022</f>
         <v>1999.3357688475592</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10">
         <v>10</v>
@@ -1631,7 +1643,7 @@
         <v>356262.91387522302</v>
       </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA15">
         <v>29.999999999943402</v>
@@ -1651,22 +1663,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="10"/>
       <c r="M16" s="10"/>
@@ -1689,22 +1701,22 @@
         <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10"/>
       <c r="M17" s="10"/>
@@ -1727,22 +1739,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10"/>
       <c r="M18" s="10"/>
@@ -1766,22 +1778,22 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="10"/>
       <c r="M19" s="10"/>
@@ -1804,22 +1816,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10"/>
       <c r="M20" s="10"/>
@@ -1867,8 +1879,8 @@
       </c>
     </row>
     <row r="23" spans="3:30" ht="68" x14ac:dyDescent="0.2">
-      <c r="D23" s="17" t="s">
-        <v>60</v>
+      <c r="D23" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="AA23">
         <v>38.000000000137902</v>
@@ -4310,6 +4322,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4320,7 +4335,7 @@
   <dimension ref="C1:AD185"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E25"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4379,9 +4394,13 @@
       </c>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="AA4">
         <v>18.999999999968999</v>
       </c>
@@ -4412,47 +4431,47 @@
     <row r="6" spans="3:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="AA6">
         <v>20.999999999964398</v>
@@ -4472,22 +4491,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="7"/>
@@ -4512,22 +4531,22 @@
     </row>
     <row r="8" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <f>602/0.602</f>
@@ -4575,22 +4594,22 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9" s="10"/>
@@ -4613,22 +4632,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="10"/>
@@ -4648,22 +4667,22 @@
     </row>
     <row r="11" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <f>602/0.602</f>
@@ -4711,22 +4730,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12" s="10"/>
@@ -4749,22 +4768,22 @@
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="10"/>
       <c r="M13" s="10"/>
@@ -4787,22 +4806,22 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="10"/>
       <c r="M14" s="10"/>
@@ -4825,28 +4844,28 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="I15" s="24"/>
       <c r="J15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7">
         <f>1204/0.602</f>
         <v>2000</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10">
         <v>10</v>
@@ -4866,7 +4885,7 @@
         <v>378672.72242967848</v>
       </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA15">
         <v>29.999999999943402</v>
@@ -4886,22 +4905,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="10"/>
       <c r="M16" s="10"/>
@@ -4924,33 +4943,33 @@
         <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="M17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="M17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
       <c r="AA17">
         <v>31.999999999938701</v>
       </c>
@@ -4969,32 +4988,32 @@
         <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="15"/>
-      <c r="M18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="M18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
       <c r="AA18">
         <v>32.999999999971898</v>
       </c>
@@ -5013,22 +5032,22 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="10"/>
       <c r="M19" s="10"/>
@@ -5051,22 +5070,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10"/>
       <c r="M20" s="10"/>
@@ -5114,11 +5133,11 @@
       </c>
     </row>
     <row r="23" spans="3:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="D23" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>55</v>
+      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="AA23">
         <v>38.000000000137902</v>
@@ -5135,11 +5154,11 @@
     </row>
     <row r="24" spans="3:30" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
-      <c r="D24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>58</v>
+      <c r="D24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -5161,11 +5180,11 @@
     </row>
     <row r="25" spans="3:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
-      <c r="D25" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>59</v>
+      <c r="D25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -7568,9 +7587,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="M17:S17"/>
     <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7581,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C98E52-EA93-1246-917B-D790388B5A98}">
   <dimension ref="C1:AD185"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7640,9 +7660,13 @@
       </c>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="AA4">
         <v>18.999999999968999</v>
       </c>
@@ -7673,47 +7697,47 @@
     <row r="6" spans="3:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="AA6">
         <v>20.999999999964398</v>
@@ -7733,22 +7757,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="7"/>
@@ -7773,22 +7797,22 @@
     </row>
     <row r="8" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <f>602/0.602</f>
@@ -7836,22 +7860,22 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9" s="10"/>
@@ -7874,22 +7898,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="10"/>
@@ -7909,22 +7933,22 @@
     </row>
     <row r="11" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <f>602/0.602</f>
@@ -7972,22 +7996,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12" s="10"/>
@@ -8010,22 +8034,22 @@
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="10"/>
       <c r="M13" s="10"/>
@@ -8048,22 +8072,22 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="10"/>
       <c r="M14" s="10"/>
@@ -8086,28 +8110,28 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="I15" s="24"/>
       <c r="J15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7">
         <f>1204/0.602</f>
         <v>2000</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10">
         <v>5</v>
@@ -8127,7 +8151,7 @@
         <v>4747.7209186084938</v>
       </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA15">
         <v>29.999999999943402</v>
@@ -8147,22 +8171,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="10"/>
       <c r="M16" s="10"/>
@@ -8185,22 +8209,22 @@
         <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10"/>
       <c r="M17" s="10"/>
@@ -8223,22 +8247,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10"/>
       <c r="M18" s="10"/>
@@ -8262,22 +8286,22 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="10"/>
       <c r="M19" s="10"/>
@@ -8300,22 +8324,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10"/>
       <c r="M20" s="10"/>
@@ -8363,11 +8387,11 @@
       </c>
     </row>
     <row r="23" spans="3:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="D23" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>55</v>
+      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="AA23">
         <v>38.000000000137902</v>
@@ -8384,11 +8408,11 @@
     </row>
     <row r="24" spans="3:30" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
-      <c r="D24" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>58</v>
+      <c r="D24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -8410,11 +8434,11 @@
     </row>
     <row r="25" spans="3:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
-      <c r="D25" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>59</v>
+      <c r="D25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -10817,6 +10841,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -10826,8 +10853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ACE459-E046-F94C-B780-360ACD6E5E38}">
   <dimension ref="C1:AD185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10885,9 +10912,13 @@
       </c>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="AA4">
         <v>18.999999999968999</v>
       </c>
@@ -10918,47 +10949,47 @@
     <row r="6" spans="3:30" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="AA6">
         <v>20.999999999964398</v>
@@ -10978,22 +11009,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="7"/>
@@ -11018,22 +11049,22 @@
     </row>
     <row r="8" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <f>602/0.602</f>
@@ -11081,22 +11112,22 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="10"/>
       <c r="M9" s="10"/>
@@ -11119,22 +11150,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="10"/>
@@ -11154,22 +11185,22 @@
     </row>
     <row r="11" spans="3:30" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <f>602/0.602</f>
@@ -11217,22 +11248,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10"/>
       <c r="M12" s="10"/>
@@ -11255,22 +11286,22 @@
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="10"/>
       <c r="M13" s="10"/>
@@ -11293,22 +11324,22 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="10"/>
       <c r="M14" s="10"/>
@@ -11331,28 +11362,28 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="I15" s="24"/>
       <c r="J15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7">
         <f>1204/0.602</f>
         <v>2000</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10">
         <v>2</v>
@@ -11372,7 +11403,7 @@
         <v>5156.4252720274781</v>
       </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA15">
         <v>29.999999999943402</v>
@@ -11392,22 +11423,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="10"/>
       <c r="M16" s="10"/>
@@ -11430,22 +11461,22 @@
         <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10"/>
       <c r="M17" s="10"/>
@@ -11468,22 +11499,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10"/>
       <c r="M18" s="10"/>
@@ -11507,22 +11538,22 @@
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="10"/>
       <c r="M19" s="10"/>
@@ -11545,22 +11576,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10"/>
       <c r="M20" s="10"/>
@@ -11608,11 +11639,11 @@
       </c>
     </row>
     <row r="23" spans="3:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="D23" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>55</v>
+      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="AA23">
         <v>38.000000000137902</v>
@@ -11629,11 +11660,11 @@
     </row>
     <row r="24" spans="3:30" ht="17" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -11655,11 +11686,11 @@
     </row>
     <row r="25" spans="3:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -14062,6 +14093,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
